--- a/service-system/src/main/resources/static/摩擦系数3.xlsx
+++ b/service-system/src/main/resources/static/摩擦系数3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0927D53F-951B-481C-8CF9-354C730021DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F030A475-0C3F-454F-8132-8CF089588D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="左幅-匝道路面" sheetId="496" r:id="rId1"/>
@@ -596,38 +596,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="183" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,11 +629,35 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,7 +1132,7 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1149,106 +1149,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1718,136 +1718,119 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="E43:F43"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E39:F42"/>
     <mergeCell ref="J40:L40"/>
@@ -1864,6 +1847,23 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -1881,8 +1881,8 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1901,103 +1901,103 @@
       <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2467,119 +2467,136 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="A4:A6"/>
@@ -2596,23 +2613,6 @@
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="J42:L42"/>
     <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -2650,103 +2650,103 @@
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -3216,119 +3216,136 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="A4:A6"/>
@@ -3345,23 +3362,6 @@
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="J42:L42"/>
     <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -3380,7 +3380,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3399,103 +3399,103 @@
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -3965,119 +3965,136 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="A4:A6"/>
@@ -4094,23 +4111,6 @@
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="J42:L42"/>
     <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -6087,106 +6087,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -6656,119 +6656,136 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F42"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="E4:E6"/>
@@ -6785,23 +6802,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F42"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J38:L38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -6839,103 +6839,103 @@
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -6945,7 +6945,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -6955,7 +6955,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -7405,119 +7405,136 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="E39:F42"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
     <mergeCell ref="G43:L43"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="A2:B2"/>
@@ -7534,23 +7551,6 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E39:F42"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -7588,103 +7588,103 @@
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -7694,7 +7694,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -7704,7 +7704,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -8154,119 +8154,136 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="E39:F42"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
     <mergeCell ref="G43:L43"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="A2:B2"/>
@@ -8283,23 +8300,6 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E39:F42"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -8337,103 +8337,103 @@
       <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -8443,7 +8443,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -8453,7 +8453,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -8903,128 +8903,133 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="I4:I6"/>
@@ -9035,20 +9040,15 @@
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -9067,7 +9067,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:I1048576"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9086,103 +9086,103 @@
       <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -9192,7 +9192,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -9202,7 +9202,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -9652,128 +9652,133 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="I4:I6"/>
@@ -9784,20 +9789,15 @@
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -9832,106 +9832,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -9941,7 +9941,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -9951,7 +9951,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -10401,119 +10401,136 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="E39:F42"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
     <mergeCell ref="G43:L43"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="G38:I38"/>
@@ -10530,23 +10547,6 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E39:F42"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -10581,106 +10581,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -10690,7 +10690,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -10700,7 +10700,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -11150,119 +11150,136 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="A4:A6"/>
@@ -11279,23 +11296,6 @@
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="J42:L42"/>
     <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -11333,103 +11333,103 @@
       <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -11439,7 +11439,7 @@
       <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
@@ -11449,7 +11449,7 @@
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
@@ -11899,119 +11899,136 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="31" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="31" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="A4:A6"/>
@@ -12028,23 +12045,6 @@
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="J42:L42"/>
     <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
